--- a/belg/forecasts_20200517.xlsx
+++ b/belg/forecasts_20200517.xlsx
@@ -80,169 +80,169 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">13104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13148</t>
+    <t xml:space="preserve">12672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12967</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">14001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14085</t>
+    <t xml:space="preserve">13224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12860</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13593</t>
   </si>
   <si>
     <t xml:space="preserve">3</t>
   </si>
   <si>
-    <t xml:space="preserve">14758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14872</t>
+    <t xml:space="preserve">13806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14214</t>
   </si>
   <si>
     <t xml:space="preserve">4</t>
   </si>
   <si>
-    <t xml:space="preserve">15116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15257</t>
+    <t xml:space="preserve">14287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14751</t>
   </si>
   <si>
     <t xml:space="preserve">5</t>
   </si>
   <si>
-    <t xml:space="preserve">16416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16260</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16591</t>
+    <t xml:space="preserve">14965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15521</t>
   </si>
   <si>
     <t xml:space="preserve">6</t>
   </si>
   <si>
-    <t xml:space="preserve">16659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16849</t>
+    <t xml:space="preserve">15555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16171</t>
   </si>
   <si>
     <t xml:space="preserve">7</t>
   </si>
   <si>
-    <t xml:space="preserve">17179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17393</t>
+    <t xml:space="preserve">16143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16804</t>
   </si>
   <si>
     <t xml:space="preserve">8</t>
   </si>
   <si>
-    <t xml:space="preserve">17353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17581</t>
+    <t xml:space="preserve">16773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17494</t>
   </si>
   <si>
     <t xml:space="preserve">9</t>
   </si>
   <si>
-    <t xml:space="preserve">17440</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17685</t>
+    <t xml:space="preserve">17229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18024</t>
   </si>
   <si>
     <t xml:space="preserve">10</t>
   </si>
   <si>
-    <t xml:space="preserve">18126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18400</t>
+    <t xml:space="preserve">17927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18784</t>
   </si>
   <si>
     <t xml:space="preserve">11</t>
   </si>
   <si>
-    <t xml:space="preserve">19082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19378</t>
+    <t xml:space="preserve">18570</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19492</t>
   </si>
   <si>
     <t xml:space="preserve">12</t>
   </si>
   <si>
-    <t xml:space="preserve">20797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21133</t>
+    <t xml:space="preserve">19470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20462</t>
   </si>
   <si>
     <t xml:space="preserve">13</t>
   </si>
   <si>
-    <t xml:space="preserve">21499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21842</t>
+    <t xml:space="preserve">20213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21290</t>
   </si>
   <si>
     <t xml:space="preserve">14</t>
   </si>
   <si>
-    <t xml:space="preserve">22569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22935</t>
+    <t xml:space="preserve">21031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22138</t>
   </si>
 </sst>
 </file>
@@ -656,31 +656,31 @@
         <v>66</v>
       </c>
       <c r="D2" t="n">
-        <v>178956</v>
+        <v>180664</v>
       </c>
       <c r="E2" t="n">
-        <v>175937</v>
+        <v>173567</v>
       </c>
       <c r="F2" t="n">
-        <v>182293</v>
+        <v>188377</v>
       </c>
       <c r="G2" t="n">
-        <v>6852</v>
+        <v>8560</v>
       </c>
       <c r="H2" t="n">
-        <v>3833</v>
+        <v>1463</v>
       </c>
       <c r="I2" t="n">
-        <v>10189</v>
+        <v>16273</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0398</v>
+        <v>0.0497</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0223</v>
+        <v>0.0085</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0592</v>
+        <v>0.0946</v>
       </c>
       <c r="M2" t="s">
         <v>22</v>
@@ -692,22 +692,22 @@
         <v>24</v>
       </c>
       <c r="P2" t="n">
-        <v>963</v>
+        <v>531</v>
       </c>
       <c r="Q2" t="n">
-        <v>922</v>
+        <v>214</v>
       </c>
       <c r="R2" t="n">
-        <v>1007</v>
+        <v>826</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0793</v>
+        <v>0.0438</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0759</v>
+        <v>0.0177</v>
       </c>
       <c r="U2" t="n">
-        <v>0.083</v>
+        <v>0.068</v>
       </c>
     </row>
     <row r="3">
@@ -721,31 +721,31 @@
         <v>67</v>
       </c>
       <c r="D3" t="n">
-        <v>187848</v>
+        <v>188896</v>
       </c>
       <c r="E3" t="n">
-        <v>183247</v>
+        <v>180608</v>
       </c>
       <c r="F3" t="n">
-        <v>192689</v>
+        <v>197288</v>
       </c>
       <c r="G3" t="n">
-        <v>8892</v>
+        <v>8232</v>
       </c>
       <c r="H3" t="n">
-        <v>5494</v>
+        <v>5608</v>
       </c>
       <c r="I3" t="n">
-        <v>12116</v>
+        <v>10997</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0497</v>
+        <v>0.0456</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0307</v>
+        <v>0.031</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0677</v>
+        <v>0.0609</v>
       </c>
       <c r="M3" t="s">
         <v>26</v>
@@ -757,22 +757,22 @@
         <v>28</v>
       </c>
       <c r="P3" t="n">
-        <v>898</v>
+        <v>552</v>
       </c>
       <c r="Q3" t="n">
-        <v>836</v>
+        <v>389</v>
       </c>
       <c r="R3" t="n">
-        <v>967</v>
+        <v>732</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0685</v>
+        <v>0.0435</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0638</v>
+        <v>0.0307</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0738</v>
+        <v>0.0577</v>
       </c>
     </row>
     <row r="4">
@@ -786,31 +786,31 @@
         <v>68</v>
       </c>
       <c r="D4" t="n">
-        <v>194467</v>
+        <v>198415</v>
       </c>
       <c r="E4" t="n">
-        <v>188728</v>
+        <v>189400</v>
       </c>
       <c r="F4" t="n">
-        <v>200561</v>
+        <v>207601</v>
       </c>
       <c r="G4" t="n">
-        <v>6619</v>
+        <v>9520</v>
       </c>
       <c r="H4" t="n">
-        <v>3483</v>
+        <v>6869</v>
       </c>
       <c r="I4" t="n">
-        <v>9918</v>
+        <v>12412</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0352</v>
+        <v>0.0504</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0185</v>
+        <v>0.0364</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0528</v>
+        <v>0.0657</v>
       </c>
       <c r="M4" t="s">
         <v>30</v>
@@ -822,22 +822,22 @@
         <v>32</v>
       </c>
       <c r="P4" t="n">
-        <v>756</v>
+        <v>582</v>
       </c>
       <c r="Q4" t="n">
-        <v>687</v>
+        <v>405</v>
       </c>
       <c r="R4" t="n">
-        <v>824</v>
+        <v>769</v>
       </c>
       <c r="S4" t="n">
-        <v>0.054</v>
+        <v>0.044</v>
       </c>
       <c r="T4" t="n">
-        <v>0.049</v>
+        <v>0.0306</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0589</v>
+        <v>0.0581</v>
       </c>
     </row>
     <row r="5">
@@ -851,31 +851,31 @@
         <v>69</v>
       </c>
       <c r="D5" t="n">
-        <v>201329</v>
+        <v>205969</v>
       </c>
       <c r="E5" t="n">
-        <v>194391</v>
+        <v>196672</v>
       </c>
       <c r="F5" t="n">
-        <v>208055</v>
+        <v>215912</v>
       </c>
       <c r="G5" t="n">
-        <v>6862</v>
+        <v>7554</v>
       </c>
       <c r="H5" t="n">
-        <v>3560</v>
+        <v>4731</v>
       </c>
       <c r="I5" t="n">
-        <v>10474</v>
+        <v>10413</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0353</v>
+        <v>0.0381</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0183</v>
+        <v>0.0238</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0539</v>
+        <v>0.0525</v>
       </c>
       <c r="M5" t="s">
         <v>34</v>
@@ -887,22 +887,22 @@
         <v>36</v>
       </c>
       <c r="P5" t="n">
-        <v>359</v>
+        <v>481</v>
       </c>
       <c r="Q5" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="R5" t="n">
-        <v>429</v>
+        <v>668</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0243</v>
+        <v>0.0348</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0194</v>
+        <v>0.021</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0291</v>
+        <v>0.0484</v>
       </c>
     </row>
     <row r="6">
@@ -916,31 +916,31 @@
         <v>70</v>
       </c>
       <c r="D6" t="n">
-        <v>208244</v>
+        <v>216051</v>
       </c>
       <c r="E6" t="n">
-        <v>200533</v>
+        <v>205347</v>
       </c>
       <c r="F6" t="n">
-        <v>216482</v>
+        <v>227400</v>
       </c>
       <c r="G6" t="n">
-        <v>6915</v>
+        <v>10082</v>
       </c>
       <c r="H6" t="n">
-        <v>3442</v>
+        <v>6622</v>
       </c>
       <c r="I6" t="n">
-        <v>10632</v>
+        <v>13491</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0343</v>
+        <v>0.0489</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0171</v>
+        <v>0.0322</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0528</v>
+        <v>0.0655</v>
       </c>
       <c r="M6" t="s">
         <v>38</v>
@@ -952,22 +952,22 @@
         <v>40</v>
       </c>
       <c r="P6" t="n">
-        <v>1299</v>
+        <v>679</v>
       </c>
       <c r="Q6" t="n">
-        <v>1223</v>
+        <v>472</v>
       </c>
       <c r="R6" t="n">
-        <v>1378</v>
+        <v>872</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0859</v>
+        <v>0.0475</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0809</v>
+        <v>0.0331</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0912</v>
+        <v>0.0611</v>
       </c>
     </row>
     <row r="7">
@@ -981,31 +981,31 @@
         <v>71</v>
       </c>
       <c r="D7" t="n">
-        <v>215634</v>
+        <v>225214</v>
       </c>
       <c r="E7" t="n">
-        <v>207307</v>
+        <v>213513</v>
       </c>
       <c r="F7" t="n">
-        <v>225237</v>
+        <v>236877</v>
       </c>
       <c r="G7" t="n">
-        <v>7390</v>
+        <v>9163</v>
       </c>
       <c r="H7" t="n">
-        <v>3815</v>
+        <v>5765</v>
       </c>
       <c r="I7" t="n">
-        <v>11216</v>
+        <v>12331</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0355</v>
+        <v>0.0424</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0183</v>
+        <v>0.0267</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0539</v>
+        <v>0.0571</v>
       </c>
       <c r="M7" t="s">
         <v>42</v>
@@ -1017,22 +1017,22 @@
         <v>44</v>
       </c>
       <c r="P7" t="n">
-        <v>243</v>
+        <v>590</v>
       </c>
       <c r="Q7" t="n">
-        <v>165</v>
+        <v>368</v>
       </c>
       <c r="R7" t="n">
-        <v>329</v>
+        <v>803</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0148</v>
+        <v>0.0394</v>
       </c>
       <c r="T7" t="n">
-        <v>0.01</v>
+        <v>0.0246</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0201</v>
+        <v>0.0536</v>
       </c>
     </row>
     <row r="8">
@@ -1046,31 +1046,31 @@
         <v>72</v>
       </c>
       <c r="D8" t="n">
-        <v>226015</v>
+        <v>234219</v>
       </c>
       <c r="E8" t="n">
-        <v>216203</v>
+        <v>221263</v>
       </c>
       <c r="F8" t="n">
-        <v>236558</v>
+        <v>247485</v>
       </c>
       <c r="G8" t="n">
-        <v>10381</v>
+        <v>9005</v>
       </c>
       <c r="H8" t="n">
-        <v>6493</v>
+        <v>5581</v>
       </c>
       <c r="I8" t="n">
-        <v>14349</v>
+        <v>12311</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0481</v>
+        <v>0.04</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0301</v>
+        <v>0.0248</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0665</v>
+        <v>0.0547</v>
       </c>
       <c r="M8" t="s">
         <v>46</v>
@@ -1082,22 +1082,22 @@
         <v>48</v>
       </c>
       <c r="P8" t="n">
-        <v>520</v>
+        <v>588</v>
       </c>
       <c r="Q8" t="n">
-        <v>436</v>
+        <v>376</v>
       </c>
       <c r="R8" t="n">
-        <v>607</v>
+        <v>818</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0312</v>
+        <v>0.0378</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0262</v>
+        <v>0.0242</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0364</v>
+        <v>0.0526</v>
       </c>
     </row>
     <row r="9">
@@ -1111,31 +1111,31 @@
         <v>73</v>
       </c>
       <c r="D9" t="n">
-        <v>234873</v>
+        <v>244412</v>
       </c>
       <c r="E9" t="n">
-        <v>223433</v>
+        <v>231092</v>
       </c>
       <c r="F9" t="n">
-        <v>246857</v>
+        <v>258664</v>
       </c>
       <c r="G9" t="n">
-        <v>8858</v>
+        <v>10192</v>
       </c>
       <c r="H9" t="n">
-        <v>4590</v>
+        <v>6805</v>
       </c>
       <c r="I9" t="n">
-        <v>13006</v>
+        <v>13785</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0392</v>
+        <v>0.0435</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0203</v>
+        <v>0.0291</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0575</v>
+        <v>0.0589</v>
       </c>
       <c r="M9" t="s">
         <v>50</v>
@@ -1147,22 +1147,22 @@
         <v>52</v>
       </c>
       <c r="P9" t="n">
-        <v>174</v>
+        <v>629</v>
       </c>
       <c r="Q9" t="n">
-        <v>95</v>
+        <v>412</v>
       </c>
       <c r="R9" t="n">
-        <v>258</v>
+        <v>846</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0101</v>
+        <v>0.039</v>
       </c>
       <c r="T9" t="n">
-        <v>0.0055</v>
+        <v>0.0255</v>
       </c>
       <c r="U9" t="n">
-        <v>0.015</v>
+        <v>0.0524</v>
       </c>
     </row>
     <row r="10">
@@ -1176,31 +1176,31 @@
         <v>74</v>
       </c>
       <c r="D10" t="n">
-        <v>243563</v>
+        <v>251266</v>
       </c>
       <c r="E10" t="n">
-        <v>231538</v>
+        <v>236893</v>
       </c>
       <c r="F10" t="n">
-        <v>257595</v>
+        <v>265607</v>
       </c>
       <c r="G10" t="n">
-        <v>8690</v>
+        <v>6855</v>
       </c>
       <c r="H10" t="n">
-        <v>4903</v>
+        <v>3429</v>
       </c>
       <c r="I10" t="n">
-        <v>12914</v>
+        <v>10330</v>
       </c>
       <c r="J10" t="n">
-        <v>0.037</v>
+        <v>0.028</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0209</v>
+        <v>0.014</v>
       </c>
       <c r="L10" t="n">
-        <v>0.055</v>
+        <v>0.0423</v>
       </c>
       <c r="M10" t="s">
         <v>54</v>
@@ -1212,22 +1212,22 @@
         <v>56</v>
       </c>
       <c r="P10" t="n">
-        <v>87</v>
+        <v>456</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="R10" t="n">
-        <v>178</v>
+        <v>678</v>
       </c>
       <c r="S10" t="n">
-        <v>0.005</v>
+        <v>0.0272</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.0135</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0103</v>
+        <v>0.0405</v>
       </c>
     </row>
     <row r="11">
@@ -1241,31 +1241,31 @@
         <v>75</v>
       </c>
       <c r="D11" t="n">
-        <v>253079</v>
+        <v>262518</v>
       </c>
       <c r="E11" t="n">
-        <v>239981</v>
+        <v>246989</v>
       </c>
       <c r="F11" t="n">
-        <v>268459</v>
+        <v>278166</v>
       </c>
       <c r="G11" t="n">
-        <v>9515</v>
+        <v>11251</v>
       </c>
       <c r="H11" t="n">
-        <v>5189</v>
+        <v>7575</v>
       </c>
       <c r="I11" t="n">
-        <v>14262</v>
+        <v>15071</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0391</v>
+        <v>0.0448</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0213</v>
+        <v>0.0301</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0586</v>
+        <v>0.06</v>
       </c>
       <c r="M11" t="s">
         <v>58</v>
@@ -1277,22 +1277,22 @@
         <v>60</v>
       </c>
       <c r="P11" t="n">
-        <v>686</v>
+        <v>698</v>
       </c>
       <c r="Q11" t="n">
-        <v>597</v>
+        <v>454</v>
       </c>
       <c r="R11" t="n">
-        <v>774</v>
+        <v>952</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0393</v>
+        <v>0.0405</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0342</v>
+        <v>0.0263</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0444</v>
+        <v>0.0553</v>
       </c>
     </row>
     <row r="12">
@@ -1306,31 +1306,31 @@
         <v>76</v>
       </c>
       <c r="D12" t="n">
-        <v>263161</v>
+        <v>272558</v>
       </c>
       <c r="E12" t="n">
-        <v>248596</v>
+        <v>255744</v>
       </c>
       <c r="F12" t="n">
-        <v>278859</v>
+        <v>289492</v>
       </c>
       <c r="G12" t="n">
-        <v>10082</v>
+        <v>10040</v>
       </c>
       <c r="H12" t="n">
-        <v>5722</v>
+        <v>6264</v>
       </c>
       <c r="I12" t="n">
-        <v>15004</v>
+        <v>13903</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0398</v>
+        <v>0.0382</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0226</v>
+        <v>0.0239</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0593</v>
+        <v>0.053</v>
       </c>
       <c r="M12" t="s">
         <v>62</v>
@@ -1342,22 +1342,22 @@
         <v>64</v>
       </c>
       <c r="P12" t="n">
-        <v>957</v>
+        <v>642</v>
       </c>
       <c r="Q12" t="n">
-        <v>867</v>
+        <v>414</v>
       </c>
       <c r="R12" t="n">
-        <v>1053</v>
+        <v>897</v>
       </c>
       <c r="S12" t="n">
-        <v>0.0528</v>
+        <v>0.0358</v>
       </c>
       <c r="T12" t="n">
-        <v>0.0478</v>
+        <v>0.0231</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0581</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="13">
@@ -1371,31 +1371,31 @@
         <v>77</v>
       </c>
       <c r="D13" t="n">
-        <v>278162</v>
+        <v>286282</v>
       </c>
       <c r="E13" t="n">
-        <v>261463</v>
+        <v>268755</v>
       </c>
       <c r="F13" t="n">
-        <v>296839</v>
+        <v>304043</v>
       </c>
       <c r="G13" t="n">
-        <v>15001</v>
+        <v>13723</v>
       </c>
       <c r="H13" t="n">
-        <v>10205</v>
+        <v>9719</v>
       </c>
       <c r="I13" t="n">
-        <v>20229</v>
+        <v>18103</v>
       </c>
       <c r="J13" t="n">
-        <v>0.057</v>
+        <v>0.0503</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0388</v>
+        <v>0.0357</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0769</v>
+        <v>0.0664</v>
       </c>
       <c r="M13" t="s">
         <v>66</v>
@@ -1407,22 +1407,22 @@
         <v>68</v>
       </c>
       <c r="P13" t="n">
-        <v>1715</v>
+        <v>900</v>
       </c>
       <c r="Q13" t="n">
-        <v>1609</v>
+        <v>622</v>
       </c>
       <c r="R13" t="n">
-        <v>1816</v>
+        <v>1173</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0899</v>
+        <v>0.0485</v>
       </c>
       <c r="T13" t="n">
-        <v>0.0843</v>
+        <v>0.0335</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0952</v>
+        <v>0.0631</v>
       </c>
     </row>
     <row r="14">
@@ -1436,31 +1436,31 @@
         <v>78</v>
       </c>
       <c r="D14" t="n">
-        <v>287509</v>
+        <v>297565</v>
       </c>
       <c r="E14" t="n">
-        <v>269242</v>
+        <v>280296</v>
       </c>
       <c r="F14" t="n">
-        <v>307512</v>
+        <v>318525</v>
       </c>
       <c r="G14" t="n">
-        <v>9347</v>
+        <v>11283</v>
       </c>
       <c r="H14" t="n">
-        <v>4445</v>
+        <v>6936</v>
       </c>
       <c r="I14" t="n">
-        <v>14406</v>
+        <v>16046</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0336</v>
+        <v>0.0394</v>
       </c>
       <c r="K14" t="n">
-        <v>0.016</v>
+        <v>0.0242</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0518</v>
+        <v>0.056</v>
       </c>
       <c r="M14" t="s">
         <v>70</v>
@@ -1472,22 +1472,22 @@
         <v>72</v>
       </c>
       <c r="P14" t="n">
-        <v>702</v>
+        <v>743</v>
       </c>
       <c r="Q14" t="n">
-        <v>602</v>
+        <v>480</v>
       </c>
       <c r="R14" t="n">
-        <v>804</v>
+        <v>1021</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0337</v>
+        <v>0.0382</v>
       </c>
       <c r="T14" t="n">
-        <v>0.0289</v>
+        <v>0.0246</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0387</v>
+        <v>0.0524</v>
       </c>
     </row>
     <row r="15">
@@ -1501,31 +1501,31 @@
         <v>79</v>
       </c>
       <c r="D15" t="n">
-        <v>303863</v>
+        <v>310112</v>
       </c>
       <c r="E15" t="n">
-        <v>283740</v>
+        <v>290983</v>
       </c>
       <c r="F15" t="n">
-        <v>325761</v>
+        <v>331815</v>
       </c>
       <c r="G15" t="n">
-        <v>16354</v>
+        <v>12547</v>
       </c>
       <c r="H15" t="n">
-        <v>11301</v>
+        <v>8055</v>
       </c>
       <c r="I15" t="n">
-        <v>21692</v>
+        <v>17246</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0569</v>
+        <v>0.0422</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0393</v>
+        <v>0.0271</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0754</v>
+        <v>0.058</v>
       </c>
       <c r="M15" t="s">
         <v>74</v>
@@ -1537,22 +1537,22 @@
         <v>76</v>
       </c>
       <c r="P15" t="n">
-        <v>1070</v>
+        <v>818</v>
       </c>
       <c r="Q15" t="n">
-        <v>963</v>
+        <v>546</v>
       </c>
       <c r="R15" t="n">
-        <v>1180</v>
+        <v>1093</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0498</v>
+        <v>0.0405</v>
       </c>
       <c r="T15" t="n">
-        <v>0.0448</v>
+        <v>0.027</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0549</v>
+        <v>0.0541</v>
       </c>
     </row>
   </sheetData>
